--- a/data_inputs/Inside_Park_Tables/SWC_202201_SWS_inside-outside_park_TL34.xlsx
+++ b/data_inputs/Inside_Park_Tables/SWC_202201_SWS_inside-outside_park_TL34.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DATA_ANALYSIS\PARKS_AUSTRALIA\AMP_Data\SOUTHWESTCORNER_SOUTH\Vessel Propagation\Inside Park Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.mccordic.NMFS\Documents\GitHub\AMP_ves_summary\data_inputs\Inside_Park_Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="13128" windowHeight="6108"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="13128" windowHeight="6108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:Q265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G2" sqref="G2:G265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1549,7 +1549,7 @@
         <v>103.783123330984</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1602,7 +1602,7 @@
         <v>78.377590504759695</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>19</v>
@@ -1655,7 +1655,7 @@
         <v>93.025558909308302</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -1708,7 +1708,7 @@
         <v>85.307766641006793</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>12</v>
@@ -1761,7 +1761,7 @@
         <v>79.797189291131204</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>17</v>
@@ -1814,7 +1814,7 @@
         <v>89.539962342837796</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>8</v>
@@ -1867,7 +1867,7 @@
         <v>137.521460859754</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1920,7 +1920,7 @@
         <v>82.483554772393205</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>14</v>
@@ -1973,7 +1973,7 @@
         <v>85.031775482220397</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>12</v>
@@ -2026,7 +2026,7 @@
         <v>77.730190822754594</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -2079,7 +2079,7 @@
         <v>116.88975314906401</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>94.832292328938706</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -2185,7 +2185,7 @@
         <v>67.359927257093503</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>42</v>
@@ -2238,7 +2238,7 @@
         <v>95.939203893952296</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -2291,7 +2291,7 @@
         <v>70.157037519053006</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>34</v>
@@ -2344,7 +2344,7 @@
         <v>109.06598393309</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2397,7 +2397,7 @@
         <v>86.911816759683305</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>10</v>
@@ -2450,7 +2450,7 @@
         <v>84.501016325062494</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>12</v>
@@ -2503,7 +2503,7 @@
         <v>89.831847961242104</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>8</v>
@@ -2556,7 +2556,7 @@
         <v>67.294218884514706</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>43</v>
@@ -2609,7 +2609,7 @@
         <v>86.984790081941199</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -2662,7 +2662,7 @@
         <v>84.098311872920604</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>12</v>
@@ -2715,7 +2715,7 @@
         <v>102.099186530233</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -2768,7 +2768,7 @@
         <v>88.097454588055996</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>9</v>
@@ -2821,7 +2821,7 @@
         <v>88.316706492525498</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>9</v>
@@ -2874,7 +2874,7 @@
         <v>122.784846199363</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>83.328913849787796</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>13</v>
@@ -2980,7 +2980,7 @@
         <v>111.355431155685</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3033,7 +3033,7 @@
         <v>78.954011691253299</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>18</v>
@@ -3086,7 +3086,7 @@
         <v>74.708613292139702</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>25</v>
@@ -3139,7 +3139,7 @@
         <v>85.493334094493505</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>12</v>
@@ -3192,7 +3192,7 @@
         <v>110.044864821658</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3245,7 +3245,7 @@
         <v>72.005589437634598</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>30</v>
@@ -3298,7 +3298,7 @@
         <v>89.7807264213926</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>8</v>
@@ -3351,7 +3351,7 @@
         <v>110.50172977634</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3404,7 +3404,7 @@
         <v>89.832762602100701</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>8</v>
@@ -3457,7 +3457,7 @@
         <v>78.494640068256899</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>19</v>
@@ -3510,7 +3510,7 @@
         <v>86.686925080919494</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>11</v>
@@ -3563,7 +3563,7 @@
         <v>80.903027913468307</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>16</v>
@@ -3616,7 +3616,7 @@
         <v>91.1422875763012</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>7</v>
@@ -3669,7 +3669,7 @@
         <v>87.541921083380203</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>10</v>
@@ -3722,7 +3722,7 @@
         <v>80.950392597265804</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>16</v>
@@ -3775,7 +3775,7 @@
         <v>100.367458740559</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -3828,7 +3828,7 @@
         <v>102.731170127672</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -3881,7 +3881,7 @@
         <v>86.642554955276097</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>11</v>
@@ -3934,7 +3934,7 @@
         <v>87.340236963217194</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>10</v>
@@ -3987,7 +3987,7 @@
         <v>116.64828542108199</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>76.187131219589801</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>23</v>
@@ -4093,7 +4093,7 @@
         <v>98.614493913970406</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>4</v>
@@ -4146,7 +4146,7 @@
         <v>77.734352679013298</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>20</v>
@@ -4199,7 +4199,7 @@
         <v>83.161736001003106</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>13</v>
@@ -4252,7 +4252,7 @@
         <v>111.25803872624699</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -4305,7 +4305,7 @@
         <v>82.116553806207804</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>14</v>
@@ -4358,7 +4358,7 @@
         <v>79.882148273982395</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>18</v>
@@ -4411,7 +4411,7 @@
         <v>79.982262809489001</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>17</v>
@@ -4464,7 +4464,7 @@
         <v>79.286164525521599</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>17</v>
@@ -4517,7 +4517,7 @@
         <v>88.028434165708106</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>9</v>
@@ -4570,7 +4570,7 @@
         <v>97.509103761700601</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -4623,7 +4623,7 @@
         <v>87.932313047006303</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>9</v>
@@ -4676,7 +4676,7 @@
         <v>106.850762610739</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -4729,7 +4729,7 @@
         <v>98.193436764893903</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>5</v>
@@ -4782,7 +4782,7 @@
         <v>67.264622918501303</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>43</v>
@@ -4835,7 +4835,7 @@
         <v>71.190154932570593</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <v>32</v>
@@ -4888,7 +4888,7 @@
         <v>127.345903192894</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         <v>95.3151959366581</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>6</v>
@@ -4994,7 +4994,7 @@
         <v>78.599787679895101</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>19</v>
@@ -5047,7 +5047,7 @@
         <v>108.80791741615199</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -5100,7 +5100,7 @@
         <v>75.256274932466994</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>24</v>
@@ -5153,7 +5153,7 @@
         <v>97.007029719699602</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>5</v>
@@ -5206,7 +5206,7 @@
         <v>110.63661449115401</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -5259,7 +5259,7 @@
         <v>77.7429786092261</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <v>20</v>
@@ -5312,7 +5312,7 @@
         <v>122.75492824819599</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -5365,7 +5365,7 @@
         <v>78.173763662130696</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>19</v>
@@ -5418,7 +5418,7 @@
         <v>117.15241980418701</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -5471,7 +5471,7 @@
         <v>74.539675384382207</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>25</v>
@@ -5524,7 +5524,7 @@
         <v>79.640042885296197</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>17</v>
@@ -5577,7 +5577,7 @@
         <v>68.351714670711004</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>39</v>
@@ -5630,7 +5630,7 @@
         <v>72.531532194638999</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>29</v>
@@ -5683,7 +5683,7 @@
         <v>80.716841423421897</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>16</v>
@@ -5736,7 +5736,7 @@
         <v>75.330748491547297</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>24</v>
@@ -5789,7 +5789,7 @@
         <v>106.37835763061599</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -5842,7 +5842,7 @@
         <v>72.517290075074499</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>29</v>
@@ -5895,7 +5895,7 @@
         <v>79.430463885760204</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>17</v>
@@ -5948,7 +5948,7 @@
         <v>76.008921982272597</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>22</v>
@@ -6001,7 +6001,7 @@
         <v>117.498697134826</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -6054,7 +6054,7 @@
         <v>86.126401528999594</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>11</v>
@@ -6107,7 +6107,7 @@
         <v>78.929153685837406</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>18</v>
@@ -6160,7 +6160,7 @@
         <v>78.195247156413004</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>19</v>
@@ -6213,7 +6213,7 @@
         <v>122.83991813260199</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -6266,7 +6266,7 @@
         <v>80.221671324331595</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>17</v>
@@ -6319,7 +6319,7 @@
         <v>73.376678701969198</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>28</v>
@@ -6372,7 +6372,7 @@
         <v>74.046039508976904</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>26</v>
@@ -6425,7 +6425,7 @@
         <v>68.414573205473104</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
         <v>39</v>
@@ -6478,7 +6478,7 @@
         <v>88.487384964987299</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>9</v>
@@ -6531,7 +6531,7 @@
         <v>70.685521089737094</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>33</v>
@@ -6584,7 +6584,7 @@
         <v>79.320534291822199</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>17</v>
@@ -6637,7 +6637,7 @@
         <v>79.631449372970394</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>17</v>
@@ -6690,7 +6690,7 @@
         <v>94.931619282157001</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>6</v>
@@ -6743,7 +6743,7 @@
         <v>88.285953073113305</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>9</v>
@@ -6796,7 +6796,7 @@
         <v>88.901657929589305</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>9</v>
@@ -6849,7 +6849,7 @@
         <v>80.9579483598027</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>16</v>
@@ -6902,7 +6902,7 @@
         <v>82.135084142006406</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>14</v>
@@ -6955,7 +6955,7 @@
         <v>78.957363620501596</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>18</v>
@@ -7008,7 +7008,7 @@
         <v>136.37297854985599</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -7061,7 +7061,7 @@
         <v>77.815047882782906</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>20</v>
@@ -7114,7 +7114,7 @@
         <v>99.1039617755808</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -7167,7 +7167,7 @@
         <v>130.16566886080099</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -7220,7 +7220,7 @@
         <v>89.931071206861603</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>8</v>
@@ -7273,7 +7273,7 @@
         <v>79.223956804272206</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>18</v>
@@ -7326,7 +7326,7 @@
         <v>77.593226393652898</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>20</v>
@@ -7379,7 +7379,7 @@
         <v>99.449494407729503</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -7432,7 +7432,7 @@
         <v>109.469642722919</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -7485,7 +7485,7 @@
         <v>93.4167302588816</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>6</v>
@@ -7538,7 +7538,7 @@
         <v>93.287517903311098</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>6</v>
@@ -7591,7 +7591,7 @@
         <v>114.121734820827</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -7644,7 +7644,7 @@
         <v>83.801632646715603</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>12</v>
@@ -7697,7 +7697,7 @@
         <v>73.715016938847299</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>27</v>
@@ -7750,7 +7750,7 @@
         <v>90.796385835817304</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>7</v>
@@ -7803,7 +7803,7 @@
         <v>77.612168020139407</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
         <v>20</v>
@@ -7856,7 +7856,7 @@
         <v>111.07578794056001</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -7909,7 +7909,7 @@
         <v>137.51083552333799</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -7962,7 +7962,7 @@
         <v>107.85825858735301</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -8015,7 +8015,7 @@
         <v>91.536109461054195</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>7</v>
@@ -8068,7 +8068,7 @@
         <v>110.704001279303</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -8121,7 +8121,7 @@
         <v>81.140811981610696</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>16</v>
@@ -8174,7 +8174,7 @@
         <v>121.801303278448</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -8227,7 +8227,7 @@
         <v>125.496894477993</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -8280,7 +8280,7 @@
         <v>104.68274025237599</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>3</v>
@@ -8333,7 +8333,7 @@
         <v>126.50185572485201</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -8386,7 +8386,7 @@
         <v>116.30933951364</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -8439,7 +8439,7 @@
         <v>83.004369206614001</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
         <v>13</v>
@@ -8492,7 +8492,7 @@
         <v>97.163058188164101</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>5</v>
@@ -8545,7 +8545,7 @@
         <v>77.537905435475096</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>20</v>
@@ -8598,7 +8598,7 @@
         <v>95.335674648635504</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>6</v>
@@ -8651,7 +8651,7 @@
         <v>98.626619601052695</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>4</v>
@@ -8704,7 +8704,7 @@
         <v>103.596628386966</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -8757,7 +8757,7 @@
         <v>85.724428546021798</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
         <v>11</v>
@@ -8810,7 +8810,7 @@
         <v>104.945567578816</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -8863,7 +8863,7 @@
         <v>76.249351695645402</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>23</v>
@@ -8916,7 +8916,7 @@
         <v>99.499151892612801</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -8969,7 +8969,7 @@
         <v>124.169218110068</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -9022,7 +9022,7 @@
         <v>94.085395213910601</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>6</v>
@@ -9075,7 +9075,7 @@
         <v>84.499207983478996</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>12</v>
@@ -9128,7 +9128,7 @@
         <v>93.471083890556002</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
         <v>6</v>
@@ -9181,7 +9181,7 @@
         <v>104.199232438702</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
         <v>3</v>
@@ -9234,7 +9234,7 @@
         <v>122.258878906351</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -9287,7 +9287,7 @@
         <v>87.340611975193895</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>10</v>
@@ -9340,7 +9340,7 @@
         <v>81.936662619079897</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>15</v>
@@ -9393,7 +9393,7 @@
         <v>75.7655244483187</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <v>23</v>
@@ -9446,7 +9446,7 @@
         <v>79.753059048024497</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>17</v>
@@ -9499,7 +9499,7 @@
         <v>79.714815946247597</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
         <v>17</v>
@@ -9552,7 +9552,7 @@
         <v>89.720625280589701</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
         <v>8</v>
@@ -9605,7 +9605,7 @@
         <v>111.86533887572401</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -9658,7 +9658,7 @@
         <v>70.598507862558407</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>33</v>
@@ -9711,7 +9711,7 @@
         <v>75.853957781802805</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>23</v>
@@ -9764,7 +9764,7 @@
         <v>80.094029472338505</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
         <v>17</v>
@@ -9817,7 +9817,7 @@
         <v>80.3008744719845</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
         <v>17</v>
@@ -9870,7 +9870,7 @@
         <v>79.330682418389998</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
         <v>17</v>
@@ -9923,7 +9923,7 @@
         <v>85.305840211087201</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
         <v>12</v>
@@ -9976,7 +9976,7 @@
         <v>71.744186941271295</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>31</v>
@@ -10029,7 +10029,7 @@
         <v>71.732040257434406</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <v>31</v>
@@ -10082,7 +10082,7 @@
         <v>96.612484988783905</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>5</v>
@@ -10135,7 +10135,7 @@
         <v>89.645443726035097</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>8</v>
@@ -10188,7 +10188,7 @@
         <v>78.599247197730307</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <v>19</v>
@@ -10241,7 +10241,7 @@
         <v>112.28586736875199</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -10294,7 +10294,7 @@
         <v>75.614692123034402</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
         <v>23</v>
@@ -10347,7 +10347,7 @@
         <v>82.006666735325695</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>15</v>
@@ -10400,7 +10400,7 @@
         <v>72.519060127280596</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>29</v>
@@ -10453,7 +10453,7 @@
         <v>85.375802204273498</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>12</v>
@@ -10506,7 +10506,7 @@
         <v>77.842775673987006</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>20</v>
@@ -10559,7 +10559,7 @@
         <v>118.946770285413</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -10612,7 +10612,7 @@
         <v>84.363109565738498</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
         <v>12</v>
@@ -10665,7 +10665,7 @@
         <v>120.226302903735</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -10718,7 +10718,7 @@
         <v>93.215463623048393</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <v>6</v>
@@ -10771,7 +10771,7 @@
         <v>88.928705517648595</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
         <v>9</v>
@@ -10824,7 +10824,7 @@
         <v>111.31252882051901</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -10877,7 +10877,7 @@
         <v>73.849964862768601</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>27</v>
@@ -10930,7 +10930,7 @@
         <v>71.078665310732603</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <v>33</v>
@@ -10983,7 +10983,7 @@
         <v>75.514369320071296</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
         <v>23</v>
@@ -11036,7 +11036,7 @@
         <v>121.012981774067</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -11089,7 +11089,7 @@
         <v>111.885250315514</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -11142,7 +11142,7 @@
         <v>83.026955603728595</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>13</v>
@@ -11195,7 +11195,7 @@
         <v>94.334196242315997</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>6</v>
@@ -11248,7 +11248,7 @@
         <v>96.449748891301496</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <v>5</v>
@@ -11301,7 +11301,7 @@
         <v>90.096308902328801</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>8</v>
@@ -11354,7 +11354,7 @@
         <v>122.063341995176</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -11407,7 +11407,7 @@
         <v>126.77793716574099</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -11460,7 +11460,7 @@
         <v>71.465198683804999</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>32</v>
@@ -11513,7 +11513,7 @@
         <v>70.500339486180295</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>33</v>
@@ -11566,7 +11566,7 @@
         <v>70.701492902555799</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <v>33</v>
@@ -11619,7 +11619,7 @@
         <v>97.0436922836478</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
         <v>5</v>
@@ -11672,7 +11672,7 @@
         <v>111.26187980414799</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -11725,7 +11725,7 @@
         <v>74.362894619300704</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>26</v>
@@ -11778,7 +11778,7 @@
         <v>68.957871499561193</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>38</v>
@@ -11831,7 +11831,7 @@
         <v>79.687313501819204</v>
       </c>
       <c r="G196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>17</v>
@@ -11884,7 +11884,7 @@
         <v>70.144288521569393</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <v>34</v>
@@ -11937,7 +11937,7 @@
         <v>77.075108500686198</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>21</v>
@@ -11990,7 +11990,7 @@
         <v>100.57676501215499</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
         <v>4</v>
@@ -12043,7 +12043,7 @@
         <v>79.091335838679299</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <v>18</v>
@@ -12096,7 +12096,7 @@
         <v>76.649883525408697</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
         <v>22</v>
@@ -12149,7 +12149,7 @@
         <v>81.952168730602807</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>15</v>
@@ -12202,7 +12202,7 @@
         <v>105.30613400702801</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -12255,7 +12255,7 @@
         <v>106.759843698293</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -12308,7 +12308,7 @@
         <v>84.009726090532993</v>
       </c>
       <c r="G205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
         <v>12</v>
@@ -12361,7 +12361,7 @@
         <v>109.50641471332</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -12414,7 +12414,7 @@
         <v>75.691973634115001</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
         <v>23</v>
@@ -12467,7 +12467,7 @@
         <v>89.044041470456094</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>9</v>
@@ -12520,7 +12520,7 @@
         <v>111.82811445700101</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         <v>106.749488998061</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>2</v>
@@ -12626,7 +12626,7 @@
         <v>129.000335417781</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>1</v>
@@ -12679,7 +12679,7 @@
         <v>75.528871209440098</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
         <v>23</v>
@@ -12732,7 +12732,7 @@
         <v>83.0459332080911</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
         <v>13</v>
@@ -12785,7 +12785,7 @@
         <v>81.239360754239499</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
         <v>16</v>
@@ -12838,7 +12838,7 @@
         <v>87.271154582548704</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <v>10</v>
@@ -12891,7 +12891,7 @@
         <v>109.35688268167701</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>2</v>
@@ -12944,7 +12944,7 @@
         <v>78.479068356835</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
         <v>19</v>
@@ -12997,7 +12997,7 @@
         <v>140.419716168684</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -13050,7 +13050,7 @@
         <v>81.467481383881903</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
         <v>15</v>
@@ -13103,7 +13103,7 @@
         <v>83.587472778930803</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
         <v>13</v>
@@ -13156,7 +13156,7 @@
         <v>100.83127065172199</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221">
         <v>4</v>
@@ -13209,7 +13209,7 @@
         <v>90.394781910390293</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
         <v>8</v>
@@ -13262,7 +13262,7 @@
         <v>91.992454864453407</v>
       </c>
       <c r="G223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
         <v>7</v>
@@ -13315,7 +13315,7 @@
         <v>87.376328127439805</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>10</v>
@@ -13368,7 +13368,7 @@
         <v>77.408707703920399</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
         <v>21</v>
@@ -13421,7 +13421,7 @@
         <v>72.331894342162499</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
         <v>29</v>
@@ -13474,7 +13474,7 @@
         <v>79.488394970963697</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
         <v>17</v>
@@ -13527,7 +13527,7 @@
         <v>75.467082068861501</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
         <v>23</v>
@@ -13580,7 +13580,7 @@
         <v>92.697857170796894</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
         <v>6</v>
@@ -13633,7 +13633,7 @@
         <v>106.13131889843</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -13686,7 +13686,7 @@
         <v>82.023268197831996</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
         <v>15</v>
@@ -13739,7 +13739,7 @@
         <v>120.51219643457701</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -13792,7 +13792,7 @@
         <v>112.684801438123</v>
       </c>
       <c r="G233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -13845,7 +13845,7 @@
         <v>70.1184072719536</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
         <v>34</v>
@@ -13898,7 +13898,7 @@
         <v>87.373007427447405</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235">
         <v>10</v>
@@ -13951,7 +13951,7 @@
         <v>74.603793657290694</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
         <v>25</v>
@@ -14004,7 +14004,7 @@
         <v>87.579002299809801</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
         <v>10</v>
@@ -14057,7 +14057,7 @@
         <v>91.5897009221639</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
         <v>7</v>
@@ -14110,7 +14110,7 @@
         <v>110.407267072482</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -14163,7 +14163,7 @@
         <v>75.328732360348397</v>
       </c>
       <c r="G240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
         <v>24</v>
@@ -14216,7 +14216,7 @@
         <v>69.246485532517795</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H241">
         <v>37</v>
@@ -14269,7 +14269,7 @@
         <v>73.835451517074802</v>
       </c>
       <c r="G242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H242">
         <v>27</v>
@@ -14322,7 +14322,7 @@
         <v>90.455969991901696</v>
       </c>
       <c r="G243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
         <v>8</v>
@@ -14375,7 +14375,7 @@
         <v>94.360361480094994</v>
       </c>
       <c r="G244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
         <v>6</v>
@@ -14428,7 +14428,7 @@
         <v>101.15233413325301</v>
       </c>
       <c r="G245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -14481,7 +14481,7 @@
         <v>82.853629600350502</v>
       </c>
       <c r="G246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
         <v>14</v>
@@ -14534,7 +14534,7 @@
         <v>74.026245424324898</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247">
         <v>26</v>
@@ -14587,7 +14587,7 @@
         <v>107.34017203357099</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -14640,7 +14640,7 @@
         <v>116.65429252406901</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H249">
         <v>1</v>
@@ -14693,7 +14693,7 @@
         <v>130.34195522070999</v>
       </c>
       <c r="G250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250">
         <v>1</v>
@@ -14746,7 +14746,7 @@
         <v>85.997499560586405</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
         <v>11</v>
@@ -14799,7 +14799,7 @@
         <v>75.030610240307496</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252">
         <v>24</v>
@@ -14852,7 +14852,7 @@
         <v>88.571602824120404</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
         <v>9</v>
@@ -14905,7 +14905,7 @@
         <v>90.867281954946904</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
         <v>7</v>
@@ -14958,7 +14958,7 @@
         <v>131.21552036079001</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -15011,7 +15011,7 @@
         <v>105.563845287417</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
         <v>2</v>
@@ -15064,7 +15064,7 @@
         <v>94.311565395448199</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
         <v>6</v>
@@ -15117,7 +15117,7 @@
         <v>81.652197119395595</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258">
         <v>15</v>
@@ -15170,7 +15170,7 @@
         <v>81.579034018559</v>
       </c>
       <c r="G259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259">
         <v>15</v>
@@ -15223,7 +15223,7 @@
         <v>71.468970149936595</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
         <v>32</v>
@@ -15276,7 +15276,7 @@
         <v>78.829933305630703</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261">
         <v>18</v>
@@ -15329,7 +15329,7 @@
         <v>99.501097700879896</v>
       </c>
       <c r="G262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262">
         <v>4</v>
@@ -15382,7 +15382,7 @@
         <v>89.690904637028098</v>
       </c>
       <c r="G263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263">
         <v>8</v>
@@ -15435,7 +15435,7 @@
         <v>107.64691463616499</v>
       </c>
       <c r="G264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H264">
         <v>2</v>
@@ -15488,7 +15488,7 @@
         <v>80.796214929516495</v>
       </c>
       <c r="G265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H265">
         <v>16</v>
